--- a/Data Input Sheets/Ability Coding Sheet.xlsx
+++ b/Data Input Sheets/Ability Coding Sheet.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="88" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{56FCF7E5-5E01-45C1-89D1-0F36078739FE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8A716432-5A2A-430D-8A28-6CD258726913}"/>
   </bookViews>
@@ -21,6 +22,248 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>Ability Name</t>
+  </si>
+  <si>
+    <t>Possible Code</t>
+  </si>
+  <si>
+    <t>MAGICIAN</t>
+  </si>
+  <si>
+    <t>AERIALATE</t>
+  </si>
+  <si>
+    <t>AROMAVEIL</t>
+  </si>
+  <si>
+    <t>AURABREAK</t>
+  </si>
+  <si>
+    <t>CHEECKPOUCH</t>
+  </si>
+  <si>
+    <t>COMPETITIVE</t>
+  </si>
+  <si>
+    <t>DARKAURA</t>
+  </si>
+  <si>
+    <t>DELTASTREAM</t>
+  </si>
+  <si>
+    <t>DESOLATELAND</t>
+  </si>
+  <si>
+    <t>FAIRYAURA</t>
+  </si>
+  <si>
+    <t>FLOWERVEIL</t>
+  </si>
+  <si>
+    <t>FURCOAT</t>
+  </si>
+  <si>
+    <t>GALEWINGS</t>
+  </si>
+  <si>
+    <t>GOOEY</t>
+  </si>
+  <si>
+    <t>GRASSPELT</t>
+  </si>
+  <si>
+    <t>MEGALAUNCHER</t>
+  </si>
+  <si>
+    <t>PARENTALBOND</t>
+  </si>
+  <si>
+    <t>PIXILATE</t>
+  </si>
+  <si>
+    <t>PRIMORIDALSEA</t>
+  </si>
+  <si>
+    <t>PROTEAN</t>
+  </si>
+  <si>
+    <t>REFRIGERATE</t>
+  </si>
+  <si>
+    <t>STANCECHANGE</t>
+  </si>
+  <si>
+    <t>STRONGJAW</t>
+  </si>
+  <si>
+    <t>SWEETVEIL</t>
+  </si>
+  <si>
+    <t>SYMBIOSIS</t>
+  </si>
+  <si>
+    <t>TOUGHCLAWS</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>BATTLEBOND</t>
+  </si>
+  <si>
+    <t>BEASTBOOST</t>
+  </si>
+  <si>
+    <t>BESERK</t>
+  </si>
+  <si>
+    <t>COMATOSE</t>
+  </si>
+  <si>
+    <t>CORROSION</t>
+  </si>
+  <si>
+    <t>DANCER</t>
+  </si>
+  <si>
+    <t>DAZZLING</t>
+  </si>
+  <si>
+    <t>DISGUISE</t>
+  </si>
+  <si>
+    <t>ELECTRICSURGE</t>
+  </si>
+  <si>
+    <t>EMERGENCYEXIT</t>
+  </si>
+  <si>
+    <t>FLUFFY</t>
+  </si>
+  <si>
+    <t>FULLMETALBODY</t>
+  </si>
+  <si>
+    <t>GALVANIZE</t>
+  </si>
+  <si>
+    <t>GRASSYSURGE</t>
+  </si>
+  <si>
+    <t>INNARDSOUT</t>
+  </si>
+  <si>
+    <t>LIQUIDVOICE</t>
+  </si>
+  <si>
+    <t>LONGREACH</t>
+  </si>
+  <si>
+    <t>MERCILESS</t>
+  </si>
+  <si>
+    <t>MISTYSURGE</t>
+  </si>
+  <si>
+    <t>POWERCONSTRUCT</t>
+  </si>
+  <si>
+    <t>POWEROFALCHEMY</t>
+  </si>
+  <si>
+    <t>PRISMARMOR</t>
+  </si>
+  <si>
+    <t>PSYCHICSURGE</t>
+  </si>
+  <si>
+    <t>QUEENLYMAJESTY</t>
+  </si>
+  <si>
+    <t>RECIEVER</t>
+  </si>
+  <si>
+    <t>RKSSYSTEM</t>
+  </si>
+  <si>
+    <t>SCHOOLING</t>
+  </si>
+  <si>
+    <t>SHADOWSHIELD</t>
+  </si>
+  <si>
+    <t>SHIELDSDOWN</t>
+  </si>
+  <si>
+    <t>SLUSHRUSH</t>
+  </si>
+  <si>
+    <t>SOULHEART</t>
+  </si>
+  <si>
+    <t>STAKEOUT</t>
+  </si>
+  <si>
+    <t>STAMINA</t>
+  </si>
+  <si>
+    <t>STEELWORKER</t>
+  </si>
+  <si>
+    <t>SURGESURFER</t>
+  </si>
+  <si>
+    <t>TANGLINGHAIR</t>
+  </si>
+  <si>
+    <t>TRIAGE</t>
+  </si>
+  <si>
+    <t>WATERBUBBLE</t>
+  </si>
+  <si>
+    <t>WATERCOMPACTION</t>
+  </si>
+  <si>
+    <t>WIMPOUT</t>
+  </si>
+  <si>
+    <t>ASSASSIN</t>
+  </si>
+  <si>
+    <t>OVERPOWER</t>
+  </si>
+  <si>
+    <t>SEASAVIOR</t>
+  </si>
+  <si>
+    <t>TOXICITY</t>
+  </si>
+  <si>
+    <t>POWERSWITCH</t>
+  </si>
+  <si>
+    <t>FINISHER</t>
+  </si>
+  <si>
+    <t>NEUROFORCE</t>
+  </si>
+  <si>
+    <t>Ability Number</t>
+  </si>
+  <si>
+    <t>see arceus?</t>
+  </si>
+  <si>
+    <t>see moxie</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,12 +613,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62344C1A-B584-4BB3-8203-FC77A7BC25E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Input Sheets/Ability Coding Sheet.xlsx
+++ b/Data Input Sheets/Ability Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{56FCF7E5-5E01-45C1-89D1-0F36078739FE}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6F29C970-7DD4-4EAE-AD7F-1ADB5220DE89}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8A716432-5A2A-430D-8A28-6CD258726913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Ability Name</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>see moxie</t>
+  </si>
+  <si>
+    <t>Technician?</t>
+  </si>
+  <si>
+    <t>Moxie?</t>
   </si>
 </sst>
 </file>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62344C1A-B584-4BB3-8203-FC77A7BC25E3}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +874,9 @@
       <c r="B30">
         <v>194</v>
       </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1147,7 +1156,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1187,15 +1196,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>234</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>

--- a/Data Input Sheets/Ability Coding Sheet.xlsx
+++ b/Data Input Sheets/Ability Coding Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6F29C970-7DD4-4EAE-AD7F-1ADB5220DE89}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5500EDF7-0DED-44AE-A25C-4BABA116CE7E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8A716432-5A2A-430D-8A28-6CD258726913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Ability Name</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Moxie?</t>
+  </si>
+  <si>
+    <t>ORBITALTIDE</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62344C1A-B584-4BB3-8203-FC77A7BC25E3}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1253,22 @@
         <v>239</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Input Sheets/Ability Coding Sheet.xlsx
+++ b/Data Input Sheets/Ability Coding Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{5500EDF7-0DED-44AE-A25C-4BABA116CE7E}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="BAF46A7BEC84546E23C6F163376B1D5E36B54314" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{481451AE-CBE6-4FFF-8509-3139E25623E8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8A716432-5A2A-430D-8A28-6CD258726913}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Ability Name</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>CONTENT</t>
+  </si>
+  <si>
+    <t>SPECTRUM</t>
+  </si>
+  <si>
+    <t>WINTERCHILL</t>
+  </si>
+  <si>
+    <t>WHIRLINGSAND</t>
+  </si>
+  <si>
+    <t>PHOENIXRISING</t>
+  </si>
+  <si>
+    <t>Primordial sea/desolate land</t>
   </si>
 </sst>
 </file>
@@ -625,17 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62344C1A-B584-4BB3-8203-FC77A7BC25E3}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,6 +1284,44 @@
         <v>241</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
